--- a/public/cohort/fileExcel/xlsxUIT/OPEN/NASK1_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/NASK1_OPEN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -937,13 +937,16 @@
     <t>NASK1/K/1, NASK1/K/2, NASK1/K/3, NASK1/K/8, NASK1/K/10, NASK1/K/11, NASK1/V/3, NASK1/V/4</t>
   </si>
   <si>
+    <t>Kracht en beweging (H11) (en herhaling H4 en H9)</t>
+  </si>
+  <si>
+    <t>NASK1/K/1, NASK1/K/2, NASK1/K/3, NASK1/K/9, NASK/V/1, NASK1/V/3, NASK1/V/4</t>
+  </si>
+  <si>
+    <t>De BINAS VMBO-KGT is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
+  </si>
+  <si>
     <t>Kracht en beweging (H11)</t>
-  </si>
-  <si>
-    <t>NASK1/K/1, NASK1/K/2, NASK1/K/3, NASK1/K/9, NASK/V/1, NASK1/V/3, NASK1/V/4</t>
-  </si>
-  <si>
-    <t>De BINAS VMBO-KGT is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
   </si>
 </sst>
 </file>
@@ -2670,7 +2673,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602314815</v>
+        <v>44385.633368056</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3061,7 +3064,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>73</v>
@@ -3155,7 +3158,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>75</v>
@@ -3249,7 +3252,7 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>77</v>
@@ -3343,7 +3346,7 @@
         <v>2</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>79</v>
@@ -3437,7 +3440,7 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32" t="s">
         <v>81</v>
@@ -3531,7 +3534,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P23" s="32" t="s">
         <v>83</v>
@@ -3646,7 +3649,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>84</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -4978,7 +4983,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602314815</v>
+        <v>44385.633368056</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5369,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>73</v>
@@ -5463,7 +5468,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>75</v>
@@ -5557,7 +5562,7 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>77</v>
@@ -5651,7 +5656,7 @@
         <v>2</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>79</v>
@@ -5745,7 +5750,7 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32" t="s">
         <v>81</v>
@@ -5820,7 +5825,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I23" s="45">
         <v>2</v>
@@ -5839,7 +5844,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P23" s="32" t="s">
         <v>83</v>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/NASK1_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/NASK1_OPEN.xlsx
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633368056</v>
+        <v>44387.766099537</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633368056</v>
+        <v>44387.766099537</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
